--- a/example_py/Final_results/champion_parameters.xlsx
+++ b/example_py/Final_results/champion_parameters.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Table 2 - Champion Params" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Caption" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t xml:space="preserve">Algorithm</t>
   </si>
@@ -65,6 +67,39 @@
   </si>
   <si>
     <t xml:space="preserve">Bayesian (BO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseline (Manual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verified Mean Distance (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tau_boost (Nm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z_offset (rad)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amp_push (rad)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swing_time (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayesian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 2: The champion parameter sets from each experimental run, ordered by their verified performance. The 'Verified Mean Distance' is the average of 5 validation trials. Parameter ranges: tau_boost [5.0–15.0], z_offset [0.1–0.4], amp_push [0.4–0.8], push_ratio [0.5–0.9], swing_time [0.5–2.0].</t>
   </si>
 </sst>
 </file>
@@ -356,10 +391,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D42" activeCellId="2" sqref="F14 F33 D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -586,6 +621,304 @@
       </c>
       <c r="J7" s="0" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="1" sqref="F14 F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>442.2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>431.4</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>420.2</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>395</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>350.2</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="F14 F33 A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
